--- a/visualization_simple.xlsx
+++ b/visualization_simple.xlsx
@@ -8,13 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/even/FANBAO/study/HDB/copd_modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8EBA1E-480D-F642-83F0-8C4634C25FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4008CAFD-AB29-E141-B1C1-96571284EEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{C586FF9F-9660-EE4F-95DC-35A7674DEDD5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" activeTab="1" xr2:uid="{C586FF9F-9660-EE4F-95DC-35A7674DEDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$B$52</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$E$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$F$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$F$2:$F$52</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$G$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$G$2:$G$52</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$H$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$H$2:$H$52</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$E$2:$E$52</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$F$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$F$2:$F$52</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$G$2:$G$52</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$H$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$H$2:$H$52</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>GOLD1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +73,54 @@
   <si>
     <t>Death</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_month</t>
+  </si>
+  <si>
+    <t>cycle_id</t>
+  </si>
+  <si>
+    <t>real_year</t>
+  </si>
+  <si>
+    <t>real_month</t>
+  </si>
+  <si>
+    <t>num_patient_gold1</t>
+  </si>
+  <si>
+    <t>num_patient_gold2</t>
+  </si>
+  <si>
+    <t>num_patient_gold3</t>
+  </si>
+  <si>
+    <t>num_patient_gold4</t>
+  </si>
+  <si>
+    <t>num_patient_copd_death</t>
+  </si>
+  <si>
+    <t>num_patient_bg_death</t>
+  </si>
+  <si>
+    <t>num_patient_alive_sum</t>
+  </si>
+  <si>
+    <t>num_patient_detected_gold1</t>
+  </si>
+  <si>
+    <t>num_patient_detected_gold2</t>
+  </si>
+  <si>
+    <t>num_patient_detected_gold3</t>
+  </si>
+  <si>
+    <t>num_patient_detected_gold4</t>
+  </si>
+  <si>
+    <t>num_patient_detected_sum</t>
   </si>
 </sst>
 </file>
@@ -95,9 +166,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2123,7 +2197,2398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_gold1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_gold2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_gold3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_gold4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_copd_death</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_patient_bg_death</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5C6C-B649-9BB6-3F72D713B0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1209193327"/>
+        <c:axId val="1226161679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1209193327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226161679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226161679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209193327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2679,20 +5144,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247386</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>103451</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>277813</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>368528</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188987</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2700,6 +5681,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF312C5-CD98-D143-AF2B-28CDAAB388FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F8F250-F32D-0244-9937-A2B266534D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3830D61-A2E4-BE4A-88E6-34D49E905E2D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4047,4 +7069,2576 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F8C71C-73C4-EC45-8837-FC1374F4E665}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="51">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>363</v>
+      </c>
+      <c r="F2">
+        <v>228</v>
+      </c>
+      <c r="G2">
+        <v>199</v>
+      </c>
+      <c r="H2">
+        <v>185</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>975</v>
+      </c>
+      <c r="L2">
+        <v>192</v>
+      </c>
+      <c r="M2">
+        <v>118</v>
+      </c>
+      <c r="N2">
+        <v>107</v>
+      </c>
+      <c r="O2">
+        <v>92</v>
+      </c>
+      <c r="P2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>345</v>
+      </c>
+      <c r="F3">
+        <v>260</v>
+      </c>
+      <c r="G3">
+        <v>185</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>61</v>
+      </c>
+      <c r="K3">
+        <v>950</v>
+      </c>
+      <c r="L3">
+        <v>180</v>
+      </c>
+      <c r="M3">
+        <v>138</v>
+      </c>
+      <c r="N3">
+        <v>97</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>330</v>
+      </c>
+      <c r="F4">
+        <v>286</v>
+      </c>
+      <c r="G4">
+        <v>178</v>
+      </c>
+      <c r="H4">
+        <v>133</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>927</v>
+      </c>
+      <c r="L4">
+        <v>172</v>
+      </c>
+      <c r="M4">
+        <v>154</v>
+      </c>
+      <c r="N4">
+        <v>91</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2025</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>332</v>
+      </c>
+      <c r="F5">
+        <v>293</v>
+      </c>
+      <c r="G5">
+        <v>183</v>
+      </c>
+      <c r="H5">
+        <v>106</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <v>914</v>
+      </c>
+      <c r="L5">
+        <v>173</v>
+      </c>
+      <c r="M5">
+        <v>155</v>
+      </c>
+      <c r="N5">
+        <v>97</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2026</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>337</v>
+      </c>
+      <c r="F6">
+        <v>306</v>
+      </c>
+      <c r="G6">
+        <v>168</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>134</v>
+      </c>
+      <c r="K6">
+        <v>901</v>
+      </c>
+      <c r="L6">
+        <v>181</v>
+      </c>
+      <c r="M6">
+        <v>157</v>
+      </c>
+      <c r="N6">
+        <v>89</v>
+      </c>
+      <c r="O6">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2027</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>325</v>
+      </c>
+      <c r="F7">
+        <v>316</v>
+      </c>
+      <c r="G7">
+        <v>161</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>158</v>
+      </c>
+      <c r="K7">
+        <v>882</v>
+      </c>
+      <c r="L7">
+        <v>176</v>
+      </c>
+      <c r="M7">
+        <v>163</v>
+      </c>
+      <c r="N7">
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <v>42</v>
+      </c>
+      <c r="P7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2028</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>308</v>
+      </c>
+      <c r="F8">
+        <v>331</v>
+      </c>
+      <c r="G8">
+        <v>154</v>
+      </c>
+      <c r="H8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>173</v>
+      </c>
+      <c r="K8">
+        <v>874</v>
+      </c>
+      <c r="L8">
+        <v>163</v>
+      </c>
+      <c r="M8">
+        <v>172</v>
+      </c>
+      <c r="N8">
+        <v>81</v>
+      </c>
+      <c r="O8">
+        <v>43</v>
+      </c>
+      <c r="P8">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2029</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>292</v>
+      </c>
+      <c r="F9">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>148</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>193</v>
+      </c>
+      <c r="K9">
+        <v>862</v>
+      </c>
+      <c r="L9">
+        <v>150</v>
+      </c>
+      <c r="M9">
+        <v>185</v>
+      </c>
+      <c r="N9">
+        <v>79</v>
+      </c>
+      <c r="O9">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2030</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>287</v>
+      </c>
+      <c r="F10">
+        <v>351</v>
+      </c>
+      <c r="G10">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>211</v>
+      </c>
+      <c r="K10">
+        <v>853</v>
+      </c>
+      <c r="L10">
+        <v>146</v>
+      </c>
+      <c r="M10">
+        <v>193</v>
+      </c>
+      <c r="N10">
+        <v>70</v>
+      </c>
+      <c r="O10">
+        <v>38</v>
+      </c>
+      <c r="P10">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2031</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>276</v>
+      </c>
+      <c r="F11">
+        <v>365</v>
+      </c>
+      <c r="G11">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>231</v>
+      </c>
+      <c r="K11">
+        <v>842</v>
+      </c>
+      <c r="L11">
+        <v>140</v>
+      </c>
+      <c r="M11">
+        <v>201</v>
+      </c>
+      <c r="N11">
+        <v>67</v>
+      </c>
+      <c r="O11">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2032</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>267</v>
+      </c>
+      <c r="F12">
+        <v>375</v>
+      </c>
+      <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>831</v>
+      </c>
+      <c r="L12">
+        <v>135</v>
+      </c>
+      <c r="M12">
+        <v>202</v>
+      </c>
+      <c r="N12">
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <v>33</v>
+      </c>
+      <c r="P12">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2033</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>279</v>
+      </c>
+      <c r="F13">
+        <v>366</v>
+      </c>
+      <c r="G13">
+        <v>121</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>260</v>
+      </c>
+      <c r="K13">
+        <v>826</v>
+      </c>
+      <c r="L13">
+        <v>146</v>
+      </c>
+      <c r="M13">
+        <v>195</v>
+      </c>
+      <c r="N13">
+        <v>63</v>
+      </c>
+      <c r="O13">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2034</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>263</v>
+      </c>
+      <c r="F14">
+        <v>385</v>
+      </c>
+      <c r="G14">
+        <v>119</v>
+      </c>
+      <c r="H14">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <v>275</v>
+      </c>
+      <c r="K14">
+        <v>818</v>
+      </c>
+      <c r="L14">
+        <v>143</v>
+      </c>
+      <c r="M14">
+        <v>201</v>
+      </c>
+      <c r="N14">
+        <v>65</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2035</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>263</v>
+      </c>
+      <c r="F15">
+        <v>380</v>
+      </c>
+      <c r="G15">
+        <v>122</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>286</v>
+      </c>
+      <c r="K15">
+        <v>814</v>
+      </c>
+      <c r="L15">
+        <v>142</v>
+      </c>
+      <c r="M15">
+        <v>198</v>
+      </c>
+      <c r="N15">
+        <v>68</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2036</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>379</v>
+      </c>
+      <c r="G16">
+        <v>122</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16">
+        <v>808</v>
+      </c>
+      <c r="L16">
+        <v>142</v>
+      </c>
+      <c r="M16">
+        <v>193</v>
+      </c>
+      <c r="N16">
+        <v>68</v>
+      </c>
+      <c r="O16">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2037</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <v>386</v>
+      </c>
+      <c r="G17">
+        <v>112</v>
+      </c>
+      <c r="H17">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>317</v>
+      </c>
+      <c r="K17">
+        <v>800</v>
+      </c>
+      <c r="L17">
+        <v>141</v>
+      </c>
+      <c r="M17">
+        <v>196</v>
+      </c>
+      <c r="N17">
+        <v>63</v>
+      </c>
+      <c r="O17">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>192</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2038</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>244</v>
+      </c>
+      <c r="F18">
+        <v>379</v>
+      </c>
+      <c r="G18">
+        <v>113</v>
+      </c>
+      <c r="H18">
+        <v>53</v>
+      </c>
+      <c r="I18">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>337</v>
+      </c>
+      <c r="K18">
+        <v>789</v>
+      </c>
+      <c r="L18">
+        <v>139</v>
+      </c>
+      <c r="M18">
+        <v>191</v>
+      </c>
+      <c r="N18">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>204</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2039</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>235</v>
+      </c>
+      <c r="F19">
+        <v>384</v>
+      </c>
+      <c r="G19">
+        <v>118</v>
+      </c>
+      <c r="H19">
+        <v>49</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>349</v>
+      </c>
+      <c r="K19">
+        <v>786</v>
+      </c>
+      <c r="L19">
+        <v>133</v>
+      </c>
+      <c r="M19">
+        <v>197</v>
+      </c>
+      <c r="N19">
+        <v>57</v>
+      </c>
+      <c r="O19">
+        <v>24</v>
+      </c>
+      <c r="P19">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>216</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2040</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>241</v>
+      </c>
+      <c r="F20">
+        <v>382</v>
+      </c>
+      <c r="G20">
+        <v>112</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>368</v>
+      </c>
+      <c r="K20">
+        <v>775</v>
+      </c>
+      <c r="L20">
+        <v>141</v>
+      </c>
+      <c r="M20">
+        <v>192</v>
+      </c>
+      <c r="N20">
+        <v>52</v>
+      </c>
+      <c r="O20">
+        <v>21</v>
+      </c>
+      <c r="P20">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>228</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2041</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>244</v>
+      </c>
+      <c r="F21">
+        <v>379</v>
+      </c>
+      <c r="G21">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>51</v>
+      </c>
+      <c r="J21">
+        <v>380</v>
+      </c>
+      <c r="K21">
+        <v>769</v>
+      </c>
+      <c r="L21">
+        <v>139</v>
+      </c>
+      <c r="M21">
+        <v>188</v>
+      </c>
+      <c r="N21">
+        <v>56</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>2042</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>247</v>
+      </c>
+      <c r="F22">
+        <v>376</v>
+      </c>
+      <c r="G22">
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22">
+        <v>51</v>
+      </c>
+      <c r="J22">
+        <v>393</v>
+      </c>
+      <c r="K22">
+        <v>766</v>
+      </c>
+      <c r="L22">
+        <v>143</v>
+      </c>
+      <c r="M22">
+        <v>186</v>
+      </c>
+      <c r="N22">
+        <v>52</v>
+      </c>
+      <c r="O22">
+        <v>23</v>
+      </c>
+      <c r="P22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>252</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>2043</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>374</v>
+      </c>
+      <c r="G23">
+        <v>114</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>52</v>
+      </c>
+      <c r="J23">
+        <v>403</v>
+      </c>
+      <c r="K23">
+        <v>765</v>
+      </c>
+      <c r="L23">
+        <v>143</v>
+      </c>
+      <c r="M23">
+        <v>184</v>
+      </c>
+      <c r="N23">
+        <v>56</v>
+      </c>
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>264</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>2044</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>251</v>
+      </c>
+      <c r="F24">
+        <v>361</v>
+      </c>
+      <c r="G24">
+        <v>118</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>422</v>
+      </c>
+      <c r="K24">
+        <v>752</v>
+      </c>
+      <c r="L24">
+        <v>143</v>
+      </c>
+      <c r="M24">
+        <v>180</v>
+      </c>
+      <c r="N24">
+        <v>55</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>276</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>2045</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>251</v>
+      </c>
+      <c r="F25">
+        <v>372</v>
+      </c>
+      <c r="G25">
+        <v>103</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>59</v>
+      </c>
+      <c r="J25">
+        <v>430</v>
+      </c>
+      <c r="K25">
+        <v>751</v>
+      </c>
+      <c r="L25">
+        <v>142</v>
+      </c>
+      <c r="M25">
+        <v>185</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>288</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>2046</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>246</v>
+      </c>
+      <c r="F26">
+        <v>379</v>
+      </c>
+      <c r="G26">
+        <v>94</v>
+      </c>
+      <c r="H26">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>442</v>
+      </c>
+      <c r="K26">
+        <v>748</v>
+      </c>
+      <c r="L26">
+        <v>140</v>
+      </c>
+      <c r="M26">
+        <v>185</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2047</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>243</v>
+      </c>
+      <c r="F27">
+        <v>369</v>
+      </c>
+      <c r="G27">
+        <v>101</v>
+      </c>
+      <c r="H27">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>61</v>
+      </c>
+      <c r="J27">
+        <v>455</v>
+      </c>
+      <c r="K27">
+        <v>744</v>
+      </c>
+      <c r="L27">
+        <v>131</v>
+      </c>
+      <c r="M27">
+        <v>189</v>
+      </c>
+      <c r="N27">
+        <v>49</v>
+      </c>
+      <c r="O27">
+        <v>17</v>
+      </c>
+      <c r="P27">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>312</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>2048</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>238</v>
+      </c>
+      <c r="F28">
+        <v>366</v>
+      </c>
+      <c r="G28">
+        <v>102</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>62</v>
+      </c>
+      <c r="J28">
+        <v>469</v>
+      </c>
+      <c r="K28">
+        <v>739</v>
+      </c>
+      <c r="L28">
+        <v>132</v>
+      </c>
+      <c r="M28">
+        <v>184</v>
+      </c>
+      <c r="N28">
+        <v>47</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>324</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2049</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>242</v>
+      </c>
+      <c r="F29">
+        <v>352</v>
+      </c>
+      <c r="G29">
+        <v>106</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <v>66</v>
+      </c>
+      <c r="J29">
+        <v>481</v>
+      </c>
+      <c r="K29">
+        <v>733</v>
+      </c>
+      <c r="L29">
+        <v>135</v>
+      </c>
+      <c r="M29">
+        <v>183</v>
+      </c>
+      <c r="N29">
+        <v>47</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>336</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>2050</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>242</v>
+      </c>
+      <c r="F30">
+        <v>351</v>
+      </c>
+      <c r="G30">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>67</v>
+      </c>
+      <c r="J30">
+        <v>489</v>
+      </c>
+      <c r="K30">
+        <v>734</v>
+      </c>
+      <c r="L30">
+        <v>134</v>
+      </c>
+      <c r="M30">
+        <v>180</v>
+      </c>
+      <c r="N30">
+        <v>56</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>348</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2051</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>237</v>
+      </c>
+      <c r="F31">
+        <v>346</v>
+      </c>
+      <c r="G31">
+        <v>116</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <v>68</v>
+      </c>
+      <c r="J31">
+        <v>502</v>
+      </c>
+      <c r="K31">
+        <v>730</v>
+      </c>
+      <c r="L31">
+        <v>135</v>
+      </c>
+      <c r="M31">
+        <v>169</v>
+      </c>
+      <c r="N31">
+        <v>62</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>360</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>2052</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>240</v>
+      </c>
+      <c r="F32">
+        <v>338</v>
+      </c>
+      <c r="G32">
+        <v>112</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>71</v>
+      </c>
+      <c r="J32">
+        <v>519</v>
+      </c>
+      <c r="K32">
+        <v>720</v>
+      </c>
+      <c r="L32">
+        <v>139</v>
+      </c>
+      <c r="M32">
+        <v>162</v>
+      </c>
+      <c r="N32">
+        <v>61</v>
+      </c>
+      <c r="O32">
+        <v>14</v>
+      </c>
+      <c r="P32">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>372</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>2053</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>235</v>
+      </c>
+      <c r="F33">
+        <v>337</v>
+      </c>
+      <c r="G33">
+        <v>108</v>
+      </c>
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>76</v>
+      </c>
+      <c r="J33">
+        <v>536</v>
+      </c>
+      <c r="K33">
+        <v>708</v>
+      </c>
+      <c r="L33">
+        <v>133</v>
+      </c>
+      <c r="M33">
+        <v>164</v>
+      </c>
+      <c r="N33">
+        <v>59</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>384</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>2054</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>229</v>
+      </c>
+      <c r="F34">
+        <v>339</v>
+      </c>
+      <c r="G34">
+        <v>111</v>
+      </c>
+      <c r="H34">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>78</v>
+      </c>
+      <c r="J34">
+        <v>546</v>
+      </c>
+      <c r="K34">
+        <v>706</v>
+      </c>
+      <c r="L34">
+        <v>126</v>
+      </c>
+      <c r="M34">
+        <v>172</v>
+      </c>
+      <c r="N34">
+        <v>56</v>
+      </c>
+      <c r="O34">
+        <v>12</v>
+      </c>
+      <c r="P34">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>396</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>2055</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>221</v>
+      </c>
+      <c r="F35">
+        <v>339</v>
+      </c>
+      <c r="G35">
+        <v>115</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <v>555</v>
+      </c>
+      <c r="K35">
+        <v>705</v>
+      </c>
+      <c r="L35">
+        <v>116</v>
+      </c>
+      <c r="M35">
+        <v>174</v>
+      </c>
+      <c r="N35">
+        <v>60</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+      <c r="P35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>408</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>2056</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>213</v>
+      </c>
+      <c r="F36">
+        <v>357</v>
+      </c>
+      <c r="G36">
+        <v>109</v>
+      </c>
+      <c r="H36">
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>81</v>
+      </c>
+      <c r="J36">
+        <v>563</v>
+      </c>
+      <c r="K36">
+        <v>706</v>
+      </c>
+      <c r="L36">
+        <v>110</v>
+      </c>
+      <c r="M36">
+        <v>183</v>
+      </c>
+      <c r="N36">
+        <v>57</v>
+      </c>
+      <c r="O36">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>420</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>2057</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>219</v>
+      </c>
+      <c r="F37">
+        <v>348</v>
+      </c>
+      <c r="G37">
+        <v>103</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="J37">
+        <v>580</v>
+      </c>
+      <c r="K37">
+        <v>696</v>
+      </c>
+      <c r="L37">
+        <v>110</v>
+      </c>
+      <c r="M37">
+        <v>181</v>
+      </c>
+      <c r="N37">
+        <v>53</v>
+      </c>
+      <c r="O37">
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>432</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>2058</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>220</v>
+      </c>
+      <c r="F38">
+        <v>343</v>
+      </c>
+      <c r="G38">
+        <v>102</v>
+      </c>
+      <c r="H38">
+        <v>29</v>
+      </c>
+      <c r="I38">
+        <v>88</v>
+      </c>
+      <c r="J38">
+        <v>588</v>
+      </c>
+      <c r="K38">
+        <v>694</v>
+      </c>
+      <c r="L38">
+        <v>104</v>
+      </c>
+      <c r="M38">
+        <v>186</v>
+      </c>
+      <c r="N38">
+        <v>53</v>
+      </c>
+      <c r="O38">
+        <v>17</v>
+      </c>
+      <c r="P38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>444</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>2059</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>207</v>
+      </c>
+      <c r="F39">
+        <v>341</v>
+      </c>
+      <c r="G39">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>595</v>
+      </c>
+      <c r="K39">
+        <v>694</v>
+      </c>
+      <c r="L39">
+        <v>99</v>
+      </c>
+      <c r="M39">
+        <v>180</v>
+      </c>
+      <c r="N39">
+        <v>62</v>
+      </c>
+      <c r="O39">
+        <v>18</v>
+      </c>
+      <c r="P39">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>456</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>2060</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>205</v>
+      </c>
+      <c r="F40">
+        <v>342</v>
+      </c>
+      <c r="G40">
+        <v>107</v>
+      </c>
+      <c r="H40">
+        <v>32</v>
+      </c>
+      <c r="I40">
+        <v>96</v>
+      </c>
+      <c r="J40">
+        <v>608</v>
+      </c>
+      <c r="K40">
+        <v>686</v>
+      </c>
+      <c r="L40">
+        <v>96</v>
+      </c>
+      <c r="M40">
+        <v>183</v>
+      </c>
+      <c r="N40">
+        <v>56</v>
+      </c>
+      <c r="O40">
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>468</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>2061</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>201</v>
+      </c>
+      <c r="F41">
+        <v>337</v>
+      </c>
+      <c r="G41">
+        <v>114</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>618</v>
+      </c>
+      <c r="K41">
+        <v>682</v>
+      </c>
+      <c r="L41">
+        <v>98</v>
+      </c>
+      <c r="M41">
+        <v>181</v>
+      </c>
+      <c r="N41">
+        <v>55</v>
+      </c>
+      <c r="O41">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>480</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>2062</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>195</v>
+      </c>
+      <c r="F42">
+        <v>344</v>
+      </c>
+      <c r="G42">
+        <v>104</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
+      <c r="I42">
+        <v>102</v>
+      </c>
+      <c r="J42">
+        <v>633</v>
+      </c>
+      <c r="K42">
+        <v>675</v>
+      </c>
+      <c r="L42">
+        <v>93</v>
+      </c>
+      <c r="M42">
+        <v>184</v>
+      </c>
+      <c r="N42">
+        <v>51</v>
+      </c>
+      <c r="O42">
+        <v>14</v>
+      </c>
+      <c r="P42">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>492</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>2063</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>198</v>
+      </c>
+      <c r="F43">
+        <v>336</v>
+      </c>
+      <c r="G43">
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>102</v>
+      </c>
+      <c r="J43">
+        <v>644</v>
+      </c>
+      <c r="K43">
+        <v>674</v>
+      </c>
+      <c r="L43">
+        <v>93</v>
+      </c>
+      <c r="M43">
+        <v>181</v>
+      </c>
+      <c r="N43">
+        <v>55</v>
+      </c>
+      <c r="O43">
+        <v>13</v>
+      </c>
+      <c r="P43">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>504</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>2064</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>201</v>
+      </c>
+      <c r="F44">
+        <v>330</v>
+      </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <v>104</v>
+      </c>
+      <c r="J44">
+        <v>662</v>
+      </c>
+      <c r="K44">
+        <v>664</v>
+      </c>
+      <c r="L44">
+        <v>95</v>
+      </c>
+      <c r="M44">
+        <v>178</v>
+      </c>
+      <c r="N44">
+        <v>47</v>
+      </c>
+      <c r="O44">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>516</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>2065</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>208</v>
+      </c>
+      <c r="F45">
+        <v>328</v>
+      </c>
+      <c r="G45">
+        <v>95</v>
+      </c>
+      <c r="H45">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>104</v>
+      </c>
+      <c r="J45">
+        <v>671</v>
+      </c>
+      <c r="K45">
+        <v>665</v>
+      </c>
+      <c r="L45">
+        <v>97</v>
+      </c>
+      <c r="M45">
+        <v>180</v>
+      </c>
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>528</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>2066</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>204</v>
+      </c>
+      <c r="F46">
+        <v>320</v>
+      </c>
+      <c r="G46">
+        <v>107</v>
+      </c>
+      <c r="H46">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>106</v>
+      </c>
+      <c r="J46">
+        <v>685</v>
+      </c>
+      <c r="K46">
+        <v>659</v>
+      </c>
+      <c r="L46">
+        <v>99</v>
+      </c>
+      <c r="M46">
+        <v>179</v>
+      </c>
+      <c r="N46">
+        <v>45</v>
+      </c>
+      <c r="O46">
+        <v>13</v>
+      </c>
+      <c r="P46">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>540</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>2067</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>209</v>
+      </c>
+      <c r="F47">
+        <v>313</v>
+      </c>
+      <c r="G47">
+        <v>113</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>108</v>
+      </c>
+      <c r="J47">
+        <v>693</v>
+      </c>
+      <c r="K47">
+        <v>659</v>
+      </c>
+      <c r="L47">
+        <v>106</v>
+      </c>
+      <c r="M47">
+        <v>174</v>
+      </c>
+      <c r="N47">
+        <v>48</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>552</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>2068</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>210</v>
+      </c>
+      <c r="F48">
+        <v>314</v>
+      </c>
+      <c r="G48">
+        <v>104</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>110</v>
+      </c>
+      <c r="J48">
+        <v>707</v>
+      </c>
+      <c r="K48">
+        <v>653</v>
+      </c>
+      <c r="L48">
+        <v>108</v>
+      </c>
+      <c r="M48">
+        <v>169</v>
+      </c>
+      <c r="N48">
+        <v>51</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>564</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>2069</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>215</v>
+      </c>
+      <c r="F49">
+        <v>312</v>
+      </c>
+      <c r="G49">
+        <v>98</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>112</v>
+      </c>
+      <c r="J49">
+        <v>718</v>
+      </c>
+      <c r="K49">
+        <v>650</v>
+      </c>
+      <c r="L49">
+        <v>112</v>
+      </c>
+      <c r="M49">
+        <v>165</v>
+      </c>
+      <c r="N49">
+        <v>45</v>
+      </c>
+      <c r="O49">
+        <v>9</v>
+      </c>
+      <c r="P49">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>576</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>2070</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>220</v>
+      </c>
+      <c r="F50">
+        <v>305</v>
+      </c>
+      <c r="G50">
+        <v>98</v>
+      </c>
+      <c r="H50">
+        <v>29</v>
+      </c>
+      <c r="I50">
+        <v>114</v>
+      </c>
+      <c r="J50">
+        <v>724</v>
+      </c>
+      <c r="K50">
+        <v>652</v>
+      </c>
+      <c r="L50">
+        <v>112</v>
+      </c>
+      <c r="M50">
+        <v>163</v>
+      </c>
+      <c r="N50">
+        <v>47</v>
+      </c>
+      <c r="O50">
+        <v>11</v>
+      </c>
+      <c r="P50">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>588</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2071</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>211</v>
+      </c>
+      <c r="F51">
+        <v>309</v>
+      </c>
+      <c r="G51">
+        <v>103</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>115</v>
+      </c>
+      <c r="J51">
+        <v>737</v>
+      </c>
+      <c r="K51">
+        <v>648</v>
+      </c>
+      <c r="L51">
+        <v>114</v>
+      </c>
+      <c r="M51">
+        <v>154</v>
+      </c>
+      <c r="N51">
+        <v>54</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>